--- a/files/DIAMOND1025.xlsx_.xlsx
+++ b/files/DIAMOND1025.xlsx_.xlsx
@@ -432,6 +432,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="13.2" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="3" max="3"/>
+    <col width="74.39999999999999" customWidth="1" min="4" max="4"/>
+    <col width="8.4" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -461,7 +468,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>OCT250001</t>
@@ -484,7 +490,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>OCT250002</t>
@@ -507,7 +512,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>OCT250003</t>
@@ -530,7 +534,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>OCT250004</t>
@@ -553,7 +556,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>OCT250005</t>
@@ -576,7 +578,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>OCT250006</t>
@@ -599,7 +600,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>OCT250007</t>
@@ -622,7 +622,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>OCT250008</t>
@@ -645,7 +644,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>OCT250009</t>
@@ -668,7 +666,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>OCT250010</t>
@@ -691,7 +688,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>OCT250011</t>
@@ -714,7 +710,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>OCT250012</t>
@@ -737,7 +732,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>OCT250013</t>
@@ -760,7 +754,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>OCT250014</t>
@@ -783,7 +776,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>OCT250015</t>
@@ -806,7 +798,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>OCT250016</t>
@@ -829,7 +820,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>OCT250017</t>
@@ -852,7 +842,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>OCT250018</t>
@@ -875,7 +864,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>OCT250019</t>
@@ -898,7 +886,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>OCT250020</t>
@@ -921,7 +908,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>OCT250021</t>
@@ -944,7 +930,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>OCT250022</t>
@@ -967,7 +952,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>OCT250023</t>
@@ -990,7 +974,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>OCT250024</t>
@@ -1013,7 +996,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>OCT250025</t>
@@ -1036,7 +1018,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>OCT250026</t>
@@ -1059,7 +1040,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>OCT250027</t>
@@ -1082,7 +1062,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>OCT250028</t>
@@ -1105,7 +1084,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>OCT250029</t>
@@ -1128,7 +1106,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>OCT250030</t>
@@ -1151,7 +1128,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>OCT250031</t>
@@ -1174,7 +1150,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>OCT250032</t>
@@ -1197,7 +1172,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>OCT250033</t>
@@ -1220,7 +1194,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>OCT250034</t>
@@ -1243,7 +1216,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
           <t>OCT250035</t>
@@ -1266,7 +1238,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>OCT250036</t>
@@ -1289,7 +1260,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
           <t>OCT250037</t>
@@ -1312,7 +1282,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>OCT250038</t>
@@ -1335,7 +1304,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>OCT250039</t>
@@ -1358,7 +1326,6 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>OCT250040</t>
@@ -1381,7 +1348,6 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>OCT250041</t>
@@ -1404,7 +1370,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>OCT250042</t>
@@ -1427,7 +1392,6 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>OCT250043</t>
@@ -1450,7 +1414,6 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>OCT250044</t>
@@ -1473,7 +1436,6 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
           <t>OCT250045</t>
@@ -1496,7 +1458,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>OCT250046</t>
@@ -1519,7 +1480,6 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
           <t>OCT250047</t>
@@ -1542,7 +1502,6 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>OCT250048</t>
@@ -1565,7 +1524,6 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
           <t>OCT250049</t>
@@ -1588,7 +1546,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>OCT250050</t>
@@ -1611,7 +1568,6 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>OCT250051</t>
@@ -1634,7 +1590,6 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
           <t>OCT250052</t>
@@ -1657,7 +1612,6 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
           <t>OCT250053</t>
@@ -1680,7 +1634,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>OCT250054</t>
@@ -1703,7 +1656,6 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
           <t>OCT250055</t>
@@ -1726,7 +1678,6 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
           <t>OCT250056</t>
@@ -1749,7 +1700,6 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
           <t>OCT250057</t>
@@ -1772,7 +1722,6 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
           <t>OCT250058</t>
@@ -1795,7 +1744,6 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
           <t>OCT250059</t>
@@ -1818,7 +1766,6 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
           <t>OCT250060</t>
@@ -1841,7 +1788,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
           <t>OCT250061</t>
@@ -1864,7 +1810,6 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
           <t>OCT250062</t>
@@ -1887,7 +1832,6 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
           <t>OCT250063</t>
@@ -1910,7 +1854,6 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
           <t>OCT250064</t>
@@ -1933,7 +1876,6 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
           <t>OCT250065</t>
@@ -1956,7 +1898,6 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
           <t>OCT250066</t>
@@ -1979,7 +1920,6 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
           <t>OCT250067</t>
@@ -2002,7 +1942,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
           <t>OCT250068</t>
@@ -2025,7 +1964,6 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
           <t>OCT250069</t>
@@ -2048,7 +1986,6 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
           <t>OCT250070</t>
@@ -2071,7 +2008,6 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
           <t>OCT250071</t>
@@ -2094,7 +2030,6 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
           <t>OCT250072</t>
@@ -2117,7 +2052,6 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
           <t>OCT250073</t>
@@ -2140,7 +2074,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
           <t>OCT250074</t>
@@ -2163,7 +2096,6 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
           <t>OCT250075</t>
@@ -2186,7 +2118,6 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
           <t>OCT250076</t>
@@ -2209,7 +2140,6 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
           <t>OCT250077</t>
@@ -2232,7 +2162,6 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
           <t>OCT250078</t>
@@ -2255,7 +2184,6 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
           <t>OCT250079</t>
@@ -2278,7 +2206,6 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
           <t>OCT250080</t>
@@ -2301,7 +2228,6 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
           <t>OCT250081</t>
@@ -2324,7 +2250,6 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
           <t>OCT250082</t>
@@ -2347,7 +2272,6 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
           <t>OCT250083</t>
@@ -2370,7 +2294,6 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
           <t>OCT250084</t>
@@ -2393,7 +2316,6 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
           <t>OCT250085</t>
@@ -2416,7 +2338,6 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
           <t>OCT250086</t>
@@ -2439,7 +2360,6 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
           <t>OCT250087</t>
@@ -2462,7 +2382,6 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
           <t>OCT250088</t>
@@ -2485,7 +2404,6 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
           <t>OCT250089</t>
@@ -2508,7 +2426,6 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
           <t>OCT250090</t>
@@ -2531,7 +2448,6 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
           <t>OCT250091</t>
@@ -2554,7 +2470,6 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
           <t>OCT250092</t>
@@ -2577,7 +2492,6 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
           <t>OCT250093</t>
@@ -2600,7 +2514,6 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
           <t>OCT250094</t>
@@ -2623,7 +2536,6 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
           <t>OCT250095</t>
@@ -2646,7 +2558,6 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
           <t>OCT250096</t>
@@ -2669,7 +2580,6 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
           <t>OCT250097</t>
@@ -2692,7 +2602,6 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
           <t>OCT250098</t>
@@ -2715,7 +2624,6 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
           <t>OCT250099</t>
@@ -2738,7 +2646,6 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
           <t>OCT250100</t>
@@ -2761,7 +2668,6 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
           <t>OCT250101</t>
@@ -2784,7 +2690,6 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
           <t>OCT250102</t>
@@ -2807,7 +2712,6 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
           <t>OCT250103</t>
@@ -2830,7 +2734,6 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
           <t>OCT250104</t>
@@ -2853,7 +2756,6 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
           <t>OCT250105</t>
@@ -2876,7 +2778,6 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
           <t>OCT250106</t>
@@ -2899,7 +2800,6 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
           <t>OCT250107</t>
@@ -2922,7 +2822,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
           <t>OCT250108</t>
@@ -2945,7 +2844,6 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
           <t>OCT250109</t>
@@ -2968,7 +2866,6 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
           <t>OCT250110</t>
@@ -2991,7 +2888,6 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
           <t>OCT250111</t>
@@ -3014,7 +2910,6 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
           <t>OCT250112</t>
@@ -3037,7 +2932,6 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
           <t>OCT250113</t>
@@ -3060,7 +2954,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
           <t>OCT250114</t>
@@ -3083,7 +2976,6 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
           <t>OCT250115</t>
@@ -3106,7 +2998,6 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
           <t>OCT250116</t>
@@ -3129,7 +3020,6 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
           <t>OCT250117</t>
@@ -3152,7 +3042,6 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
           <t>OCT250118</t>
@@ -3175,7 +3064,6 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
           <t>OCT250119</t>
@@ -3198,7 +3086,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
           <t>OCT250120</t>
@@ -3221,7 +3108,6 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
           <t>OCT250121</t>
@@ -3244,7 +3130,6 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
           <t>OCT250122</t>
@@ -3267,7 +3152,6 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
           <t>OCT250123</t>
@@ -3290,7 +3174,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
           <t>OCT250124</t>
@@ -3313,7 +3196,6 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
           <t>OCT250125</t>
@@ -3336,7 +3218,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
           <t>OCT250126</t>
@@ -3359,7 +3240,6 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
           <t>OCT250127</t>
@@ -3382,7 +3262,6 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
           <t>OCT250128</t>
@@ -3405,7 +3284,6 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
           <t>OCT250129</t>
@@ -3428,7 +3306,6 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
           <t>OCT250130</t>
@@ -3451,7 +3328,6 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
           <t>OCT250131</t>
@@ -3474,7 +3350,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
           <t>OCT250132</t>
@@ -3497,7 +3372,6 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
           <t>OCT250133</t>
@@ -3520,7 +3394,6 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
           <t>OCT250134</t>
@@ -3543,7 +3416,6 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
           <t>OCT250135</t>
@@ -3566,7 +3438,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
           <t>OCT250136</t>
@@ -3589,7 +3460,6 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
           <t>OCT250137</t>
@@ -3612,7 +3482,6 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
           <t>OCT250138</t>
@@ -3635,7 +3504,6 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
           <t>OCT250139</t>
@@ -3658,7 +3526,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
           <t>OCT250140</t>
@@ -3681,7 +3548,6 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
           <t>OCT250141</t>
@@ -3704,7 +3570,6 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
           <t>OCT250142</t>
@@ -3727,7 +3592,6 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
           <t>OCT250143</t>
@@ -3750,7 +3614,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
           <t>OCT250144</t>
@@ -3773,7 +3636,6 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
           <t>OCT250145</t>
@@ -3796,7 +3658,6 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
           <t>OCT250146</t>
@@ -3819,7 +3680,6 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
           <t>OCT250147</t>
@@ -3842,7 +3702,6 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
           <t>OCT250148</t>
@@ -3865,7 +3724,6 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
           <t>OCT250149</t>
@@ -3888,7 +3746,6 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
           <t>OCT250150</t>
@@ -3911,7 +3768,6 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
           <t>OCT250151</t>
@@ -3934,7 +3790,6 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
           <t>OCT250152</t>
@@ -3957,7 +3812,6 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
           <t>OCT250153</t>
@@ -3980,7 +3834,6 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
           <t>OCT250154</t>
@@ -4003,7 +3856,6 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
           <t>OCT250155</t>
@@ -4026,7 +3878,6 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
           <t>OCT250156</t>
@@ -4049,7 +3900,6 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
           <t>OCT250157</t>
@@ -4072,7 +3922,6 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
           <t>OCT250158</t>
@@ -4095,7 +3944,6 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
           <t>OCT250159</t>
@@ -4118,7 +3966,6 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
           <t>OCT250160</t>
@@ -4141,7 +3988,6 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
           <t>OCT250161</t>
@@ -4164,7 +4010,6 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
           <t>OCT250162</t>
@@ -4187,7 +4032,6 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
           <t>OCT250163</t>
@@ -4210,7 +4054,6 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
           <t>OCT250164</t>
@@ -4233,7 +4076,6 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
           <t>OCT250165</t>
@@ -4256,7 +4098,6 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
           <t>OCT250166</t>
@@ -4279,7 +4120,6 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
           <t>OCT250167</t>
@@ -4302,7 +4142,6 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
           <t>OCT250168</t>
@@ -4325,7 +4164,6 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
           <t>OCT250169</t>
@@ -4348,7 +4186,6 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
           <t>OCT250170</t>
@@ -4371,7 +4208,6 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
           <t>OCT250171</t>
@@ -4394,7 +4230,6 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
           <t>OCT250172</t>
@@ -4417,7 +4252,6 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
           <t>OCT250173</t>
@@ -4440,7 +4274,6 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
           <t>OCT250174</t>
@@ -4463,7 +4296,6 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
           <t>OCT250175</t>
@@ -4486,7 +4318,6 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
           <t>OCT250176</t>
@@ -4509,7 +4340,6 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
           <t>OCT250177</t>
@@ -4532,7 +4362,6 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
           <t>OCT250178</t>
@@ -4555,7 +4384,6 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
           <t>OCT250179</t>
@@ -4578,7 +4406,6 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
           <t>OCT250180</t>
@@ -4601,7 +4428,6 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
           <t>OCT250181</t>
@@ -4624,7 +4450,6 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
           <t>OCT250182</t>
@@ -4647,7 +4472,6 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
           <t>OCT250183</t>
@@ -4670,7 +4494,6 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
           <t>OCT250184</t>
@@ -4693,7 +4516,6 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
           <t>OCT250185</t>
@@ -4716,7 +4538,6 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
           <t>OCT250186</t>
@@ -4739,7 +4560,6 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
           <t>OCT250187</t>
@@ -4762,7 +4582,6 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
           <t>OCT250188</t>
@@ -4785,7 +4604,6 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
           <t>OCT250189</t>
@@ -4808,7 +4626,6 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
           <t>OCT250190</t>
@@ -4831,7 +4648,6 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
           <t>OCT250191</t>
@@ -4854,7 +4670,6 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
           <t>OCT250192</t>
@@ -4877,7 +4692,6 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
           <t>OCT250193</t>
@@ -4900,7 +4714,6 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
           <t>OCT250194</t>
@@ -4923,7 +4736,6 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
           <t>OCT250195</t>
@@ -4946,7 +4758,6 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
           <t>OCT250196</t>
@@ -4969,7 +4780,6 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
           <t>OCT250197</t>
@@ -4992,7 +4802,6 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
           <t>OCT250198</t>
@@ -5015,7 +4824,6 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
           <t>OCT250199</t>
@@ -5038,7 +4846,6 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
           <t>OCT250200</t>
@@ -5061,7 +4868,6 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
           <t>OCT250201</t>
@@ -5084,7 +4890,6 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
           <t>OCT250202</t>
@@ -5107,7 +4912,6 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
           <t>OCT250203</t>
@@ -5130,7 +4934,6 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
           <t>OCT250204</t>
@@ -5153,7 +4956,6 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
           <t>OCT250205</t>
@@ -5176,7 +4978,6 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
           <t>OCT250206</t>
@@ -5199,7 +5000,6 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
           <t>OCT250207</t>
@@ -5222,7 +5022,6 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
           <t>OCT250208</t>
@@ -5245,7 +5044,6 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
           <t>OCT250209</t>
@@ -5268,7 +5066,6 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
           <t>OCT250210</t>
@@ -5291,7 +5088,6 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
           <t>OCT250211</t>
@@ -5314,7 +5110,6 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
           <t>OCT250212</t>
@@ -5337,7 +5132,6 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
           <t>OCT250213</t>
@@ -5360,7 +5154,6 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
           <t>OCT250214</t>
@@ -5383,7 +5176,6 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
           <t>OCT250215</t>
@@ -5406,7 +5198,6 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
           <t>OCT250216</t>
@@ -5429,7 +5220,6 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
           <t>OCT250217</t>
@@ -5452,7 +5242,6 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
           <t>OCT250218</t>
@@ -5475,7 +5264,6 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
           <t>OCT250219</t>
@@ -5498,7 +5286,6 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
           <t>OCT250220</t>
@@ -5521,7 +5308,6 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
           <t>OCT250221</t>
@@ -5544,7 +5330,6 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
           <t>OCT250222</t>
@@ -5567,7 +5352,6 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
           <t>OCT250223</t>
@@ -5590,7 +5374,6 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
           <t>OCT250224</t>
@@ -5613,7 +5396,6 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
           <t>OCT250225</t>
@@ -5636,7 +5418,6 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
           <t>OCT250226</t>
@@ -5659,7 +5440,6 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
           <t>OCT250227</t>
@@ -5682,7 +5462,6 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
           <t>OCT250228</t>
@@ -5705,7 +5484,6 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
           <t>OCT250229</t>
@@ -5728,7 +5506,6 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
           <t>OCT250230</t>
@@ -5751,7 +5528,6 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
           <t>OCT250231</t>
@@ -5774,7 +5550,6 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
           <t>OCT250232</t>
@@ -5797,7 +5572,6 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
           <t>OCT250233</t>
@@ -5820,7 +5594,6 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
           <t>OCT250234</t>
@@ -5843,7 +5616,6 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
           <t>OCT250235</t>
@@ -5866,7 +5638,6 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
           <t>OCT250236</t>
@@ -5889,7 +5660,6 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
           <t>OCT250237</t>
@@ -5912,7 +5682,6 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
           <t>OCT250238</t>
@@ -5935,7 +5704,6 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
           <t>OCT250239</t>
@@ -5958,7 +5726,6 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
           <t>OCT250240</t>
@@ -5981,7 +5748,6 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
           <t>OCT250241</t>
@@ -6004,7 +5770,6 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
           <t>OCT250242</t>
@@ -6027,7 +5792,6 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
           <t>OCT250243</t>
@@ -6050,7 +5814,6 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
           <t>OCT250244</t>
@@ -6073,7 +5836,6 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
           <t>OCT250245</t>
@@ -6096,7 +5858,6 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
           <t>OCT250246</t>
@@ -6119,7 +5880,6 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
           <t>OCT250247</t>
@@ -6142,7 +5902,6 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
           <t>OCT250248</t>
@@ -6165,7 +5924,6 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
           <t>OCT250249</t>
@@ -6188,7 +5946,6 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
           <t>OCT250250</t>
@@ -6211,7 +5968,6 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
           <t>OCT250251</t>
@@ -6234,7 +5990,6 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
           <t>OCT250252</t>
@@ -6257,7 +6012,6 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
           <t>OCT250253</t>
@@ -6280,7 +6034,6 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
           <t>OCT250254</t>
@@ -6303,7 +6056,6 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
           <t>OCT250255</t>
@@ -6326,7 +6078,6 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
           <t>OCT250256</t>
@@ -6349,7 +6100,6 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
           <t>OCT250257</t>
@@ -6372,7 +6122,6 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
           <t>OCT250258</t>
@@ -6395,7 +6144,6 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
           <t>OCT250259</t>
@@ -6418,7 +6166,6 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
           <t>OCT250260</t>
@@ -6441,7 +6188,6 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
           <t>OCT250261</t>
@@ -6464,7 +6210,6 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
           <t>OCT250262</t>
@@ -6487,7 +6232,6 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
           <t>OCT250263</t>
@@ -6510,7 +6254,6 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
           <t>OCT250264</t>
@@ -6533,7 +6276,6 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
           <t>OCT250265</t>
@@ -6556,7 +6298,6 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
           <t>OCT250266</t>
@@ -6579,7 +6320,6 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
           <t>OCT250267</t>
@@ -6602,7 +6342,6 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
           <t>OCT250268</t>
@@ -6625,7 +6364,6 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
           <t>OCT250269</t>
@@ -6648,7 +6386,6 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
           <t>OCT250270</t>
@@ -6671,7 +6408,6 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
           <t>OCT250271</t>
@@ -6694,7 +6430,6 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
           <t>OCT250272</t>
@@ -6717,7 +6452,6 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
           <t>OCT250273</t>
@@ -6740,7 +6474,6 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
           <t>OCT250274</t>
@@ -6763,7 +6496,6 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
           <t>OCT250275</t>
@@ -6786,7 +6518,6 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
           <t>OCT250276</t>
@@ -6809,7 +6540,6 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
           <t>OCT250277</t>
@@ -6832,7 +6562,6 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
           <t>OCT250278</t>
@@ -6855,7 +6584,6 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
           <t>OCT250279</t>
@@ -6878,7 +6606,6 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
           <t>OCT250280</t>
@@ -6901,7 +6628,6 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
           <t>OCT250281</t>
@@ -6924,7 +6650,6 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
           <t>OCT250282</t>
@@ -6947,7 +6672,6 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
           <t>OCT250283</t>
@@ -6970,7 +6694,6 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
           <t>OCT250284</t>
@@ -6993,7 +6716,6 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
           <t>OCT250285</t>
@@ -7016,7 +6738,6 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
           <t>OCT250286</t>
@@ -7039,7 +6760,6 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
           <t>OCT250287</t>
@@ -7062,7 +6782,6 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
           <t>OCT250288</t>
@@ -7085,7 +6804,6 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
           <t>OCT250289</t>
@@ -7108,7 +6826,6 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
           <t>OCT250290</t>
@@ -7131,7 +6848,6 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
           <t>OCT250291</t>
@@ -7154,7 +6870,6 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
           <t>OCT250292</t>
@@ -7177,7 +6892,6 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
           <t>OCT250293</t>
@@ -7200,7 +6914,6 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
           <t>OCT250294</t>
@@ -7223,7 +6936,6 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
           <t>OCT250295</t>
@@ -7246,7 +6958,6 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
           <t>OCT250296</t>
@@ -7269,7 +6980,6 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
           <t>OCT250297</t>
@@ -7292,7 +7002,6 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
           <t>OCT250298</t>
@@ -7315,7 +7024,6 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
           <t>OCT250299</t>
@@ -7338,7 +7046,6 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
           <t>OCT250300</t>
@@ -7361,7 +7068,6 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
           <t>OCT250301</t>
@@ -7384,7 +7090,6 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
           <t>OCT250302</t>
@@ -7407,7 +7112,6 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
           <t>OCT250303</t>
@@ -7430,7 +7134,6 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
           <t>OCT250304</t>
@@ -7453,7 +7156,6 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
           <t>OCT250305</t>
@@ -7476,7 +7178,6 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
           <t>OCT250306</t>
@@ -7499,7 +7200,6 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
           <t>OCT250307</t>
@@ -7522,7 +7222,6 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
           <t>OCT250308</t>
@@ -7545,7 +7244,6 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
           <t>OCT250309</t>
@@ -7568,7 +7266,6 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
           <t>OCT250310</t>
@@ -7591,7 +7288,6 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
           <t>OCT250311</t>
@@ -7614,7 +7310,6 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
           <t>OCT250312</t>
@@ -7637,7 +7332,6 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
           <t>OCT250313</t>
@@ -7660,7 +7354,6 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
           <t>OCT250314</t>
@@ -7683,7 +7376,6 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
           <t>OCT250315</t>
@@ -7706,7 +7398,6 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
           <t>OCT250316</t>
@@ -7729,7 +7420,6 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
           <t>OCT250317</t>
@@ -7752,7 +7442,6 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
           <t>OCT250318</t>
@@ -7775,7 +7464,6 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
           <t>OCT250319</t>
@@ -7798,7 +7486,6 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
           <t>OCT250320</t>
@@ -7821,7 +7508,6 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
           <t>OCT250321</t>
@@ -7844,7 +7530,6 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
           <t>OCT250322</t>
@@ -7867,7 +7552,6 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
           <t>OCT250323</t>
@@ -7890,7 +7574,6 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
           <t>OCT250324</t>
@@ -7913,7 +7596,6 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
           <t>OCT250325</t>
@@ -7936,7 +7618,6 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
           <t>OCT250326</t>
@@ -7959,7 +7640,6 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
           <t>OCT250327</t>
@@ -7982,7 +7662,6 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
           <t>OCT250328</t>
@@ -8005,7 +7684,6 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
           <t>OCT250329</t>
@@ -8028,7 +7706,6 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
           <t>OCT250330</t>
@@ -8051,7 +7728,6 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
           <t>OCT250331</t>
@@ -8074,7 +7750,6 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
           <t>OCT250332</t>
@@ -8097,7 +7772,6 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
           <t>OCT250333</t>
@@ -8120,7 +7794,6 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
           <t>OCT250334</t>
@@ -8143,7 +7816,6 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
           <t>OCT250335</t>
@@ -8166,7 +7838,6 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
           <t>OCT250336</t>
@@ -8189,7 +7860,6 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
           <t>OCT250337</t>
